--- a/Tests/estudo-heuristicas.xlsx
+++ b/Tests/estudo-heuristicas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simas\Desktop\MEIC_A1S2\PP\SameGame-PP\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{149F45C1-666D-49F4-9A1A-AC777E075782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA693E2B-4B3F-42F3-AFC7-925C3174B44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{833FF55C-88A9-476F-9D42-23657CD450B2}"/>
+    <workbookView xWindow="5232" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{833FF55C-88A9-476F-9D42-23657CD450B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">a* </t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Pontuação</t>
+  </si>
+  <si>
+    <t>1ºtake</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,7 +500,9 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>

--- a/Tests/estudo-heuristicas.xlsx
+++ b/Tests/estudo-heuristicas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simas\Desktop\MEIC_A1S2\PP\SameGame-PP\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA693E2B-4B3F-42F3-AFC7-925C3174B44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7E9406-AF7C-4A9A-9E64-08D4913A1262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5232" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{833FF55C-88A9-476F-9D42-23657CD450B2}"/>
+    <workbookView xWindow="4884" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{833FF55C-88A9-476F-9D42-23657CD450B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t xml:space="preserve">a* </t>
   </si>
@@ -69,13 +69,16 @@
   </si>
   <si>
     <t>1ºtake</t>
+  </si>
+  <si>
+    <t>2ºtake</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +88,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -145,6 +156,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +478,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,55 +630,106 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>198</v>
+      </c>
+      <c r="E11" s="4">
+        <v>66</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2970781250</v>
+      </c>
+      <c r="G11" s="4">
+        <v>806</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5134</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1923</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2950156250</v>
+      </c>
+      <c r="G12" s="4">
+        <v>823</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E13" s="4">
+        <v>739</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2950781250</v>
+      </c>
+      <c r="G13" s="4">
+        <v>750</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
